--- a/config_11.23/act_hhl_ty_config.xlsx
+++ b/config_11.23/act_hhl_ty_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="config_infor" sheetId="9" r:id="rId1"/>
@@ -223,10 +223,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>act_019_hhl_</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>ty_icon_flq5</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -256,6 +252,10 @@
   </si>
   <si>
     <t>cpl_cjj</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_020_hhl_</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -702,8 +702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -763,13 +763,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C2" s="11">
         <v>57</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>11</v>
@@ -796,13 +796,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C3" s="11">
         <v>57</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>11</v>
@@ -839,7 +839,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
@@ -889,7 +889,7 @@
         <v>41</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D2" s="5">
         <v>300000</v>
@@ -909,7 +909,7 @@
         <v>42</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D3" s="5">
         <v>60000</v>
@@ -950,7 +950,7 @@
         <v>43</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D5" s="2">
         <v>30000</v>
@@ -986,7 +986,7 @@
         <v>44</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D7" s="2">
         <v>12000</v>
@@ -1024,7 +1024,7 @@
         <v>45</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D9" s="2">
         <v>6000</v>
@@ -1062,7 +1062,7 @@
         <v>46</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D11" s="2">
         <v>1200</v>
@@ -1284,6 +1284,16 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
   <rangeList sheetStid="1" master=""/>
   <rangeList sheetStid="2" master=""/>
@@ -1293,24 +1303,15 @@
 </allowEditUser>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <bookSettings>
-    <isFilterShared>1</isFilterShared>
-    <isAutoUpdatePaused>0</isAutoUpdatePaused>
-    <filterType>conn</filterType>
-  </bookSettings>
-</settings>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="1" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="4" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="6" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1325,18 +1326,17 @@
 </file>
 
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="1" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="4" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="6" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
+<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <bookSettings>
+    <isFilterShared>1</isFilterShared>
+    <isAutoUpdatePaused>0</isAutoUpdatePaused>
+    <filterType>conn</filterType>
+  </bookSettings>
+</settings>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -1348,13 +1348,13 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -1366,7 +1366,7 @@
 </file>
 
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>